--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3834841.137589308</v>
+        <v>3832589.057878101</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>389.3672963389053</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>143.0659977617357</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>73.59949802443646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>163.4723387335426</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846104</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.92365879439235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.86209348694693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>9.59580281112687</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>387.3568991626939</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697825</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>53.4522744295482</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>26.05155675490684</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695649</v>
+        <v>83.70251495695469</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>70.0455488112438</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.25102067617261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>66.25628701154712</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>66.25628701154714</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>255.2269336503894</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>169.9685329265976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>25.52471385612597</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.30093260579</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>806.3384156653785</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>806.3384156653785</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>806.3384156653785</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>799.3929149161751</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645724</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.900772669912</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>850.8032380291689</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>850.8032380291689</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>700.6865986168332</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>552.7735050344401</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>405.8835575365297</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>238.1807209112486</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.01298720966</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.595817172699</v>
+        <v>845.4915543310553</v>
       </c>
       <c r="X4" t="n">
-        <v>1071.595817172699</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>850.8032380291689</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.908724368016</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>1134.908724368016</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278969</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211463</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>510.8106564211463</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>180.9157728462281</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,25 +4802,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1783.471894452538</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1783.471894452538</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U10" t="n">
-        <v>1783.471894452538</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1783.471894452538</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,10 +5060,10 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395904</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>302.45403664168</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>160.7422054838781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6245,16 +6245,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
         <v>175.9033664000583</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7014,16 +7014,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7737,16 +7737,16 @@
         <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>119.599202296584</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>216.1389255780003</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.5809595057647</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>15.00954930701842</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,19 +24649,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.95754073885479</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>55.74112246243951</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>55.74112246243956</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637737.494060001</v>
+        <v>637737.4940600009</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>637737.494060001</v>
+        <v>637737.4940600009</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.9346977561</v>
       </c>
       <c r="G2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.58005119802203e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683046</v>
       </c>
       <c r="G4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12996.8641468305</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12996.86414683042</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683049</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728346.8595894916</v>
+        <v>-728346.8595894917</v>
       </c>
       <c r="C6" t="n">
-        <v>600397.8861381006</v>
+        <v>600397.8861381008</v>
       </c>
       <c r="D6" t="n">
-        <v>600397.8861381009</v>
+        <v>600397.886138101</v>
       </c>
       <c r="E6" t="n">
-        <v>347436.0789196629</v>
+        <v>347401.340994227</v>
       </c>
       <c r="F6" t="n">
-        <v>672848.5407270187</v>
+        <v>672813.8028015826</v>
       </c>
       <c r="G6" t="n">
-        <v>672848.5407270185</v>
+        <v>672813.8028015828</v>
       </c>
       <c r="H6" t="n">
-        <v>672848.5407270183</v>
+        <v>672813.8028015823</v>
       </c>
       <c r="I6" t="n">
-        <v>672848.5407270184</v>
+        <v>672813.8028015824</v>
       </c>
       <c r="J6" t="n">
-        <v>455317.3383297408</v>
+        <v>455282.6004043053</v>
       </c>
       <c r="K6" t="n">
-        <v>672848.5407270184</v>
+        <v>672813.8028015823</v>
       </c>
       <c r="L6" t="n">
-        <v>672848.540727018</v>
+        <v>672813.8028015827</v>
       </c>
       <c r="M6" t="n">
-        <v>587793.5127915065</v>
+        <v>587758.7748660705</v>
       </c>
       <c r="N6" t="n">
-        <v>672848.5407270183</v>
+        <v>672813.8028015824</v>
       </c>
       <c r="O6" t="n">
-        <v>672848.5407270181</v>
+        <v>672813.802801583</v>
       </c>
       <c r="P6" t="n">
-        <v>672848.5407270185</v>
+        <v>672813.8028015826</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.475063997527537e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.475063997527537e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.475063997527537e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>21.55442931454814</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>226.6651029167333</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>71.15551688988432</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>62.23731665549457</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825465</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>365.3142798616612</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>276.9271955254641</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.51914657901756</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>136.3167509018937</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>226.0860865689212</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.20792265079217e-12</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28336,13 +28336,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32789,28 +32789,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>303.4024373464761</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.7678776111906</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,28 +33260,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>361.1081696176612</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,13 +33500,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>316.6133175811573</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>491.819738231079</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>342.490526454265</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>663.4727207607269</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>165.5609983721171</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.6338436891722</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,28 +36908,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>222.5537898377871</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,13 +37148,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>174.479283659139</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>357.8453308167487</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>211.1488143709317</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>520.8764763162825</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
